--- a/QUANGHANH2/excel/DK/DanhSachTaiNan.xlsx
+++ b/QUANGHANH2/excel/DK/DanhSachTaiNan.xlsx
@@ -2,9 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,60 +27,53 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Mã nhân viên</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>Tên nhân viên</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>Đơn vị</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>Lý do tai nạn</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>Loại tai nạn</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>Ca</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>Ngày</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="0"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -119,15 +117,15 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,22 +406,22 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.8984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.86328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.69921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.399999999999999">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +445,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/QUANGHANH2/excel/DK/DanhSachTaiNan.xlsx
+++ b/QUANGHANH2/excel/DK/DanhSachTaiNan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win\Documents\GitHub\QUANGHANH-PROTOTYPE\QUANGHANH2\excel\DK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,12 +80,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -115,12 +121,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,41 +415,41 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.46484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.86328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.53125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.73046875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.265625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
